--- a/thresholds/AL/hinduism/hinduism-thresholds.xlsx
+++ b/thresholds/AL/hinduism/hinduism-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,30 +518,30 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>C 03,04,67</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="E3" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G3" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -553,35 +553,35 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>A (A1) 01,02,03,04</t>
+          <t>C 03,04,67</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>240</v>
       </c>
       <c r="C4" t="n">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D4" t="n">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E4" t="n">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F4" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -595,19 +595,19 @@
         <v>240</v>
       </c>
       <c r="C5" t="n">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E5" t="n">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F5" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G5" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -616,42 +616,42 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03,04</t>
+          <t>A (A2) 01,02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F6" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
@@ -677,14 +677,224 @@
         <v>101</v>
       </c>
       <c r="G7" t="n">
+        <v>80</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>A (A2) 01,02</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>63</v>
+      </c>
+      <c r="F8" t="n">
+        <v>52</v>
+      </c>
+      <c r="G8" t="n">
+        <v>41</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>A 01,02,03,04</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>240</v>
+      </c>
+      <c r="C9" t="n">
+        <v>177</v>
+      </c>
+      <c r="D9" t="n">
+        <v>153</v>
+      </c>
+      <c r="E9" t="n">
+        <v>129</v>
+      </c>
+      <c r="F9" t="n">
+        <v>107</v>
+      </c>
+      <c r="G9" t="n">
+        <v>85</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>S 01,02</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>120</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>76</v>
+      </c>
+      <c r="E10" t="n">
+        <v>64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>November 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>A (A1) 01,02,03,04</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>240</v>
+      </c>
+      <c r="C11" t="n">
+        <v>171</v>
+      </c>
+      <c r="D11" t="n">
+        <v>147</v>
+      </c>
+      <c r="E11" t="n">
+        <v>123</v>
+      </c>
+      <c r="F11" t="n">
+        <v>101</v>
+      </c>
+      <c r="G11" t="n">
         <v>79</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>A (A2) 01,02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>52</v>
+      </c>
+      <c r="G12" t="n">
+        <v>41</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>S 01,02</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>120</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>63</v>
+      </c>
+      <c r="F13" t="n">
+        <v>52</v>
+      </c>
+      <c r="G13" t="n">
+        <v>41</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
